--- a/API Files/Acuity Research/Event Relationship Contact.xlsx
+++ b/API Files/Acuity Research/Event Relationship Contact.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namita\git\PE4.7Automation\API Files\Acuity Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\PE4.7Automation\API Files\Acuity Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5BC6D93E-0D3D-4162-AB98-478BEA7F8F63}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Event Relationship Contact" r:id="rId1" sheetId="1"/>
+    <sheet name="Event Relationship Contact" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="145">
   <si>
     <t>Company NSAdmin - Event01</t>
   </si>
@@ -454,17 +453,13 @@
     <t>false</t>
   </si>
   <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>CRM1 8842191645</t>
+    <t>CRM1 884211493</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -899,99 +894,99 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1008,10 +1003,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1046,7 +1041,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1081,7 +1076,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1175,21 +1170,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1206,7 +1201,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1258,30 +1253,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="F203" sqref="F203:F241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="4" max="4" style="1" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="1" collapsed="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -1301,10 +1296,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1318,10 +1310,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>144</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1335,10 +1324,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1352,10 +1338,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>144</v>
-      </c>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1369,10 +1352,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1386,10 +1366,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>144</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -1403,10 +1380,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>144</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1420,10 +1394,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1437,10 +1408,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1454,10 +1422,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>144</v>
-      </c>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1471,10 +1436,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1488,10 +1450,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>144</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1505,10 +1464,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>144</v>
-      </c>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1522,10 +1478,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>144</v>
-      </c>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1539,10 +1492,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>144</v>
-      </c>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1556,10 +1506,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>144</v>
-      </c>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -1573,10 +1520,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>144</v>
-      </c>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1590,10 +1534,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>144</v>
-      </c>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1607,10 +1548,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>144</v>
-      </c>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -1624,10 +1562,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>144</v>
-      </c>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -1641,10 +1576,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>144</v>
-      </c>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1658,10 +1590,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>144</v>
-      </c>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -1675,10 +1604,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>144</v>
-      </c>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1692,10 +1618,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>144</v>
-      </c>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -1709,10 +1632,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>144</v>
-      </c>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>48</v>
       </c>
@@ -1726,10 +1646,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>144</v>
-      </c>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -1743,10 +1660,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>144</v>
-      </c>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>52</v>
       </c>
@@ -1760,10 +1674,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>144</v>
-      </c>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>54</v>
       </c>
@@ -1777,10 +1688,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>144</v>
-      </c>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -1794,10 +1702,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>144</v>
-      </c>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>58</v>
       </c>
@@ -1811,10 +1716,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>144</v>
-      </c>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>60</v>
       </c>
@@ -1828,10 +1730,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>144</v>
-      </c>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>61</v>
       </c>
@@ -1845,10 +1744,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>62</v>
       </c>
@@ -1862,10 +1758,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>144</v>
-      </c>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>63</v>
       </c>
@@ -1879,10 +1772,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>144</v>
-      </c>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -1896,10 +1786,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>144</v>
-      </c>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>65</v>
       </c>
@@ -1913,10 +1800,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>66</v>
       </c>
@@ -1930,10 +1814,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>144</v>
-      </c>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>67</v>
       </c>
@@ -1947,10 +1828,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>144</v>
-      </c>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>68</v>
       </c>
@@ -1964,10 +1842,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>144</v>
-      </c>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>69</v>
       </c>
@@ -1981,10 +1856,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>144</v>
-      </c>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>70</v>
       </c>
@@ -1998,10 +1870,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>144</v>
-      </c>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>71</v>
       </c>
@@ -2015,10 +1884,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>144</v>
-      </c>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>72</v>
       </c>
@@ -2032,10 +1898,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>144</v>
-      </c>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>73</v>
       </c>
@@ -2049,10 +1912,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>144</v>
-      </c>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>74</v>
       </c>
@@ -2066,10 +1926,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>144</v>
-      </c>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>75</v>
       </c>
@@ -2083,10 +1940,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>144</v>
-      </c>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>76</v>
       </c>
@@ -2100,10 +1954,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>144</v>
-      </c>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>77</v>
       </c>
@@ -2117,10 +1968,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>144</v>
-      </c>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>78</v>
       </c>
@@ -2134,10 +1982,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>144</v>
-      </c>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>79</v>
       </c>
@@ -2151,10 +1996,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>144</v>
-      </c>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>80</v>
       </c>
@@ -2168,10 +2010,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>144</v>
-      </c>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>81</v>
       </c>
@@ -2185,10 +2024,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>144</v>
-      </c>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>82</v>
       </c>
@@ -2202,10 +2038,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>144</v>
-      </c>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>83</v>
       </c>
@@ -2219,10 +2052,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>144</v>
-      </c>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>84</v>
       </c>
@@ -2236,10 +2066,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>144</v>
-      </c>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>85</v>
       </c>
@@ -2253,10 +2080,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>144</v>
-      </c>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>86</v>
       </c>
@@ -2270,10 +2094,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>144</v>
-      </c>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>87</v>
       </c>
@@ -2287,10 +2108,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>144</v>
-      </c>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>88</v>
       </c>
@@ -2304,10 +2122,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>144</v>
-      </c>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>89</v>
       </c>
@@ -2321,10 +2136,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>144</v>
-      </c>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>90</v>
       </c>
@@ -2338,10 +2150,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>144</v>
-      </c>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>92</v>
       </c>
@@ -2355,10 +2164,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>144</v>
-      </c>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>94</v>
       </c>
@@ -2372,10 +2178,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>144</v>
-      </c>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>96</v>
       </c>
@@ -2389,10 +2192,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>144</v>
-      </c>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>98</v>
       </c>
@@ -2406,10 +2206,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>144</v>
-      </c>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>100</v>
       </c>
@@ -2423,10 +2220,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>144</v>
-      </c>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>102</v>
       </c>
@@ -2440,10 +2234,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>144</v>
-      </c>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>104</v>
       </c>
@@ -2457,10 +2248,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>144</v>
-      </c>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>106</v>
       </c>
@@ -2474,10 +2262,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>144</v>
-      </c>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>108</v>
       </c>
@@ -2491,10 +2276,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>144</v>
-      </c>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>110</v>
       </c>
@@ -2508,10 +2290,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>144</v>
-      </c>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>112</v>
       </c>
@@ -2525,10 +2304,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>144</v>
-      </c>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>114</v>
       </c>
@@ -2542,10 +2318,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>144</v>
-      </c>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>116</v>
       </c>
@@ -2559,10 +2332,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>144</v>
-      </c>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>118</v>
       </c>
@@ -2576,10 +2346,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>144</v>
-      </c>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>120</v>
       </c>
@@ -2593,10 +2360,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>144</v>
-      </c>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>122</v>
       </c>
@@ -2610,10 +2374,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>144</v>
-      </c>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>124</v>
       </c>
@@ -2627,10 +2388,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>144</v>
-      </c>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>126</v>
       </c>
@@ -2644,10 +2402,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>144</v>
-      </c>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>128</v>
       </c>
@@ -2661,10 +2416,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>144</v>
-      </c>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -2678,10 +2430,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>144</v>
-      </c>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>2</v>
       </c>
@@ -2695,10 +2444,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>144</v>
-      </c>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -2712,10 +2458,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>144</v>
-      </c>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>6</v>
       </c>
@@ -2729,10 +2472,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>144</v>
-      </c>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>8</v>
       </c>
@@ -2746,10 +2486,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>144</v>
-      </c>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>10</v>
       </c>
@@ -2763,10 +2500,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>144</v>
-      </c>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>12</v>
       </c>
@@ -2780,10 +2514,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>144</v>
-      </c>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>14</v>
       </c>
@@ -2797,10 +2528,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>144</v>
-      </c>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>16</v>
       </c>
@@ -2814,10 +2542,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>144</v>
-      </c>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>18</v>
       </c>
@@ -2831,10 +2556,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>144</v>
-      </c>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>20</v>
       </c>
@@ -2848,10 +2570,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>144</v>
-      </c>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>22</v>
       </c>
@@ -2865,10 +2584,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>144</v>
-      </c>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>24</v>
       </c>
@@ -2882,10 +2598,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>144</v>
-      </c>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>26</v>
       </c>
@@ -2899,10 +2612,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>144</v>
-      </c>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>28</v>
       </c>
@@ -2916,10 +2626,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>144</v>
-      </c>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>30</v>
       </c>
@@ -2933,10 +2640,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>144</v>
-      </c>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>32</v>
       </c>
@@ -2950,10 +2654,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>144</v>
-      </c>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>34</v>
       </c>
@@ -2967,10 +2668,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>144</v>
-      </c>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>36</v>
       </c>
@@ -2984,10 +2682,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>144</v>
-      </c>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>38</v>
       </c>
@@ -3001,10 +2696,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>144</v>
-      </c>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>40</v>
       </c>
@@ -3018,10 +2710,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>144</v>
-      </c>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>42</v>
       </c>
@@ -3035,10 +2724,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>144</v>
-      </c>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>44</v>
       </c>
@@ -3052,10 +2738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>144</v>
-      </c>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>46</v>
       </c>
@@ -3069,10 +2752,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>144</v>
-      </c>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>48</v>
       </c>
@@ -3086,10 +2766,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>144</v>
-      </c>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>50</v>
       </c>
@@ -3103,10 +2780,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>144</v>
-      </c>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>52</v>
       </c>
@@ -3120,10 +2794,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>144</v>
-      </c>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>54</v>
       </c>
@@ -3137,10 +2808,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>144</v>
-      </c>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>56</v>
       </c>
@@ -3154,10 +2822,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>144</v>
-      </c>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>58</v>
       </c>
@@ -3171,10 +2836,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>144</v>
-      </c>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>60</v>
       </c>
@@ -3188,10 +2850,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>144</v>
-      </c>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>61</v>
       </c>
@@ -3205,10 +2864,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>144</v>
-      </c>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>62</v>
       </c>
@@ -3222,10 +2878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>144</v>
-      </c>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>63</v>
       </c>
@@ -3239,10 +2892,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>144</v>
-      </c>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>64</v>
       </c>
@@ -3256,10 +2906,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>144</v>
-      </c>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>65</v>
       </c>
@@ -3273,10 +2920,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>144</v>
-      </c>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>66</v>
       </c>
@@ -3290,10 +2934,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>144</v>
-      </c>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>67</v>
       </c>
@@ -3307,10 +2948,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>144</v>
-      </c>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>68</v>
       </c>
@@ -3324,10 +2962,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>144</v>
-      </c>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>69</v>
       </c>
@@ -3341,10 +2976,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>144</v>
-      </c>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>70</v>
       </c>
@@ -3358,10 +2990,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>144</v>
-      </c>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>71</v>
       </c>
@@ -3375,10 +3004,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>144</v>
-      </c>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>72</v>
       </c>
@@ -3392,10 +3018,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>144</v>
-      </c>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>73</v>
       </c>
@@ -3409,10 +3032,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>144</v>
-      </c>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>74</v>
       </c>
@@ -3426,10 +3046,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>144</v>
-      </c>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>75</v>
       </c>
@@ -3443,10 +3060,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>144</v>
-      </c>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>76</v>
       </c>
@@ -3460,10 +3074,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>144</v>
-      </c>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>77</v>
       </c>
@@ -3477,10 +3088,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>144</v>
-      </c>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>78</v>
       </c>
@@ -3494,10 +3102,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>144</v>
-      </c>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>79</v>
       </c>
@@ -3511,10 +3116,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>144</v>
-      </c>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>80</v>
       </c>
@@ -3528,10 +3130,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>144</v>
-      </c>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>81</v>
       </c>
@@ -3545,10 +3144,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>144</v>
-      </c>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>82</v>
       </c>
@@ -3562,10 +3158,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>144</v>
-      </c>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>83</v>
       </c>
@@ -3579,10 +3172,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>144</v>
-      </c>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>84</v>
       </c>
@@ -3596,10 +3186,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>144</v>
-      </c>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>85</v>
       </c>
@@ -3613,10 +3200,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>144</v>
-      </c>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>86</v>
       </c>
@@ -3630,10 +3214,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>144</v>
-      </c>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>87</v>
       </c>
@@ -3647,10 +3228,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>144</v>
-      </c>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>88</v>
       </c>
@@ -3664,10 +3242,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>144</v>
-      </c>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>89</v>
       </c>
@@ -3681,10 +3256,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>144</v>
-      </c>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>90</v>
       </c>
@@ -3698,10 +3270,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>144</v>
-      </c>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>92</v>
       </c>
@@ -3715,10 +3284,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>94</v>
       </c>
@@ -3732,10 +3298,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>96</v>
       </c>
@@ -3749,10 +3312,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>144</v>
-      </c>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>98</v>
       </c>
@@ -3766,10 +3326,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>144</v>
-      </c>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>100</v>
       </c>
@@ -3783,10 +3340,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>144</v>
-      </c>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>102</v>
       </c>
@@ -3800,10 +3354,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>144</v>
-      </c>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>104</v>
       </c>
@@ -3817,10 +3368,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>144</v>
-      </c>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>106</v>
       </c>
@@ -3834,10 +3382,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>144</v>
-      </c>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>108</v>
       </c>
@@ -3851,10 +3396,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>144</v>
-      </c>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>110</v>
       </c>
@@ -3868,10 +3410,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>144</v>
-      </c>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>112</v>
       </c>
@@ -3885,10 +3424,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>144</v>
-      </c>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>114</v>
       </c>
@@ -3902,10 +3438,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>144</v>
-      </c>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>116</v>
       </c>
@@ -3919,10 +3452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>144</v>
-      </c>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>118</v>
       </c>
@@ -3936,10 +3466,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>144</v>
-      </c>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>120</v>
       </c>
@@ -3953,10 +3480,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>144</v>
-      </c>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>122</v>
       </c>
@@ -3970,10 +3494,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>144</v>
-      </c>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>124</v>
       </c>
@@ -3987,10 +3508,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>144</v>
-      </c>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>126</v>
       </c>
@@ -4004,10 +3522,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>144</v>
-      </c>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>128</v>
       </c>
@@ -4021,10 +3536,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>144</v>
-      </c>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>0</v>
       </c>
@@ -4038,10 +3550,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>144</v>
-      </c>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>2</v>
       </c>
@@ -4055,10 +3564,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>144</v>
-      </c>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>4</v>
       </c>
@@ -4072,10 +3578,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>144</v>
-      </c>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>6</v>
       </c>
@@ -4089,10 +3592,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>144</v>
-      </c>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>8</v>
       </c>
@@ -4106,10 +3606,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>144</v>
-      </c>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>20</v>
       </c>
@@ -4123,10 +3620,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>144</v>
-      </c>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>22</v>
       </c>
@@ -4140,10 +3634,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>144</v>
-      </c>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>24</v>
       </c>
@@ -4157,10 +3648,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>144</v>
-      </c>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>26</v>
       </c>
@@ -4174,10 +3662,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>144</v>
-      </c>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>28</v>
       </c>
@@ -4191,10 +3676,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>144</v>
-      </c>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>40</v>
       </c>
@@ -4208,10 +3690,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>144</v>
-      </c>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>42</v>
       </c>
@@ -4225,10 +3704,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>144</v>
-      </c>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>44</v>
       </c>
@@ -4242,10 +3718,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>144</v>
-      </c>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>46</v>
       </c>
@@ -4259,10 +3732,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>144</v>
-      </c>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>48</v>
       </c>
@@ -4276,10 +3746,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>144</v>
-      </c>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>60</v>
       </c>
@@ -4293,10 +3760,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>144</v>
-      </c>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>61</v>
       </c>
@@ -4310,10 +3774,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>144</v>
-      </c>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>62</v>
       </c>
@@ -4327,10 +3788,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>144</v>
-      </c>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>63</v>
       </c>
@@ -4344,10 +3802,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>144</v>
-      </c>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>64</v>
       </c>
@@ -4361,10 +3816,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>144</v>
-      </c>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>70</v>
       </c>
@@ -4378,10 +3830,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>144</v>
-      </c>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>71</v>
       </c>
@@ -4395,10 +3844,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>144</v>
-      </c>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>72</v>
       </c>
@@ -4412,10 +3858,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>144</v>
-      </c>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>73</v>
       </c>
@@ -4429,10 +3872,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>144</v>
-      </c>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>74</v>
       </c>
@@ -4446,10 +3886,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>144</v>
-      </c>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>80</v>
       </c>
@@ -4463,10 +3900,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>144</v>
-      </c>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>81</v>
       </c>
@@ -4480,10 +3914,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>144</v>
-      </c>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>82</v>
       </c>
@@ -4497,10 +3928,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>144</v>
-      </c>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>83</v>
       </c>
@@ -4514,10 +3942,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>144</v>
-      </c>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>84</v>
       </c>
@@ -4531,10 +3956,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>144</v>
-      </c>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>90</v>
       </c>
@@ -4548,10 +3970,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>144</v>
-      </c>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>92</v>
       </c>
@@ -4565,10 +3984,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>144</v>
-      </c>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>94</v>
       </c>
@@ -4582,10 +3998,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>144</v>
-      </c>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>96</v>
       </c>
@@ -4599,10 +4012,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>144</v>
-      </c>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>98</v>
       </c>
@@ -4616,10 +4026,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>144</v>
-      </c>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>110</v>
       </c>
@@ -4633,10 +4040,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>144</v>
-      </c>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>112</v>
       </c>
@@ -4650,10 +4054,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>144</v>
-      </c>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>114</v>
       </c>
@@ -4667,10 +4068,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>144</v>
-      </c>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>116</v>
       </c>
@@ -4684,10 +4082,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>144</v>
-      </c>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>118</v>
       </c>
@@ -4701,10 +4096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>144</v>
-      </c>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>0</v>
       </c>
@@ -4715,13 +4107,10 @@
         <v>143</v>
       </c>
       <c r="F202" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>2</v>
       </c>
@@ -4732,13 +4121,10 @@
         <v>143</v>
       </c>
       <c r="F203" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>4</v>
       </c>
@@ -4749,13 +4135,10 @@
         <v>143</v>
       </c>
       <c r="F204" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>6</v>
       </c>
@@ -4766,13 +4149,10 @@
         <v>143</v>
       </c>
       <c r="F205" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>8</v>
       </c>
@@ -4783,13 +4163,10 @@
         <v>143</v>
       </c>
       <c r="F206" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>20</v>
       </c>
@@ -4800,13 +4177,10 @@
         <v>143</v>
       </c>
       <c r="F207" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>22</v>
       </c>
@@ -4817,13 +4191,10 @@
         <v>143</v>
       </c>
       <c r="F208" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>24</v>
       </c>
@@ -4834,13 +4205,10 @@
         <v>143</v>
       </c>
       <c r="F209" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>26</v>
       </c>
@@ -4851,13 +4219,10 @@
         <v>143</v>
       </c>
       <c r="F210" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>28</v>
       </c>
@@ -4868,13 +4233,10 @@
         <v>143</v>
       </c>
       <c r="F211" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>40</v>
       </c>
@@ -4885,13 +4247,10 @@
         <v>143</v>
       </c>
       <c r="F212" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>42</v>
       </c>
@@ -4902,13 +4261,10 @@
         <v>143</v>
       </c>
       <c r="F213" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>44</v>
       </c>
@@ -4919,13 +4275,10 @@
         <v>143</v>
       </c>
       <c r="F214" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>46</v>
       </c>
@@ -4936,13 +4289,10 @@
         <v>143</v>
       </c>
       <c r="F215" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>48</v>
       </c>
@@ -4953,13 +4303,10 @@
         <v>143</v>
       </c>
       <c r="F216" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>60</v>
       </c>
@@ -4970,13 +4317,10 @@
         <v>143</v>
       </c>
       <c r="F217" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>61</v>
       </c>
@@ -4987,13 +4331,10 @@
         <v>143</v>
       </c>
       <c r="F218" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>62</v>
       </c>
@@ -5004,13 +4345,10 @@
         <v>143</v>
       </c>
       <c r="F219" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>63</v>
       </c>
@@ -5021,13 +4359,10 @@
         <v>143</v>
       </c>
       <c r="F220" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>64</v>
       </c>
@@ -5038,13 +4373,10 @@
         <v>143</v>
       </c>
       <c r="F221" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>70</v>
       </c>
@@ -5055,13 +4387,10 @@
         <v>143</v>
       </c>
       <c r="F222" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>71</v>
       </c>
@@ -5072,13 +4401,10 @@
         <v>143</v>
       </c>
       <c r="F223" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>72</v>
       </c>
@@ -5089,13 +4415,10 @@
         <v>143</v>
       </c>
       <c r="F224" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>73</v>
       </c>
@@ -5106,13 +4429,10 @@
         <v>143</v>
       </c>
       <c r="F225" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>74</v>
       </c>
@@ -5123,13 +4443,10 @@
         <v>143</v>
       </c>
       <c r="F226" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>80</v>
       </c>
@@ -5140,13 +4457,10 @@
         <v>143</v>
       </c>
       <c r="F227" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>81</v>
       </c>
@@ -5157,13 +4471,10 @@
         <v>143</v>
       </c>
       <c r="F228" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>82</v>
       </c>
@@ -5174,13 +4485,10 @@
         <v>143</v>
       </c>
       <c r="F229" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>83</v>
       </c>
@@ -5191,13 +4499,10 @@
         <v>143</v>
       </c>
       <c r="F230" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>84</v>
       </c>
@@ -5208,13 +4513,10 @@
         <v>143</v>
       </c>
       <c r="F231" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>90</v>
       </c>
@@ -5225,13 +4527,10 @@
         <v>143</v>
       </c>
       <c r="F232" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>92</v>
       </c>
@@ -5242,13 +4541,10 @@
         <v>143</v>
       </c>
       <c r="F233" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>94</v>
       </c>
@@ -5259,13 +4555,10 @@
         <v>143</v>
       </c>
       <c r="F234" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>96</v>
       </c>
@@ -5276,13 +4569,10 @@
         <v>143</v>
       </c>
       <c r="F235" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>98</v>
       </c>
@@ -5293,13 +4583,10 @@
         <v>143</v>
       </c>
       <c r="F236" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>110</v>
       </c>
@@ -5310,13 +4597,10 @@
         <v>143</v>
       </c>
       <c r="F237" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>112</v>
       </c>
@@ -5327,13 +4611,10 @@
         <v>143</v>
       </c>
       <c r="F238" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>114</v>
       </c>
@@ -5344,13 +4625,10 @@
         <v>143</v>
       </c>
       <c r="F239" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>116</v>
       </c>
@@ -5361,13 +4639,10 @@
         <v>143</v>
       </c>
       <c r="F240" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>118</v>
       </c>
@@ -5378,10 +4653,10 @@
         <v>143</v>
       </c>
       <c r="F241" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>